--- a/APF/QA/RA006/QAP001_APF_RA006_APF0501_可處理資料範圍查詢.xlsx
+++ b/APF/QA/RA006/QAP001_APF_RA006_APF0501_可處理資料範圍查詢.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="180" windowWidth="10920" windowHeight="5700" tabRatio="549" activeTab="2"/>
+    <workbookView xWindow="1395" yWindow="180" windowWidth="10920" windowHeight="5700" tabRatio="549" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="修訂履歷" sheetId="5" r:id="rId1"/>
@@ -154,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="395">
   <si>
     <t>檢視面向</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -2423,6 +2423,16 @@
   </si>
   <si>
     <t>強化</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>傳勝、英杰、慕霖</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SD PM</t>
   </si>
 </sst>
 </file>
@@ -4517,11 +4527,11 @@
   </sheetPr>
   <dimension ref="A1:T70"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="U10" sqref="U10"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4650,11 +4660,11 @@
       </c>
       <c r="C5" s="99">
         <f>COUNTIF($C$7:$C$26,"&gt;""")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="108">
         <f>SUM($M$7:$M$26)</f>
-        <v>5.0000000000000062</v>
+        <v>5.6666666666666705</v>
       </c>
       <c r="E5" s="99">
         <v>3</v>
@@ -4797,23 +4807,62 @@
       <c r="R7" s="72"/>
     </row>
     <row r="8" spans="1:20" s="55" customFormat="1" ht="16.5">
-      <c r="A8" s="64"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="71"/>
+      <c r="A8" s="64" t="s">
+        <v>394</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>392</v>
+      </c>
+      <c r="D8" s="140" t="s">
+        <v>390</v>
+      </c>
+      <c r="E8" s="66">
+        <v>41598</v>
+      </c>
+      <c r="F8" s="140" t="s">
+        <v>383</v>
+      </c>
+      <c r="G8" s="66">
+        <v>41598</v>
+      </c>
+      <c r="H8" s="67">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="I8" s="67">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="J8" s="65">
+        <v>4</v>
+      </c>
+      <c r="K8" s="68" t="s">
+        <v>393</v>
+      </c>
+      <c r="L8" s="69" t="s">
+        <v>384</v>
+      </c>
+      <c r="M8" s="70">
+        <f>IF(C8="","",J8*(I8-H8)*24)</f>
+        <v>0.6666666666666643</v>
+      </c>
+      <c r="N8" s="63">
+        <f>IF(C8="","",COUNTIF(改善明細!A:A,Q8))</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="63">
+        <f>IF(C8="","",COUNTIFS(改善明細!$A:$A,Q8, 改善明細!$J:$J,"V"))</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>SD PM</v>
+      </c>
+      <c r="Q8" s="71" t="str">
+        <f t="shared" ref="Q8:Q19" si="1">IF(OR(A8="",B8=""),"",A8&amp;"-"&amp;B8)</f>
+        <v>SD PM-2</v>
+      </c>
       <c r="R8" s="72"/>
     </row>
     <row r="9" spans="1:20" s="55" customFormat="1" ht="16.5">
@@ -4837,7 +4886,7 @@
         <v/>
       </c>
       <c r="Q9" s="71" t="str">
-        <f t="shared" ref="Q9:Q19" si="1">IF(OR(A9="",B9=""),"",A9&amp;"-"&amp;B9)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R9" s="74"/>
@@ -5745,8 +5794,8 @@
   </sheetPr>
   <dimension ref="A1:R116"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
